--- a/Entregaveis/Templates/Template Mapeamento.xlsx
+++ b/Entregaveis/Templates/Template Mapeamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaassis\Documents\GitHub\HSL-IPS\Entregaveis\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,8 +19,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapeamento!$A$2:$J$2</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Mapeamento!$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapeamento!$A$3:$H$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Mapeamento!$G$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -58,31 +58,28 @@
     <t>TERMO REPETIDO.</t>
   </si>
   <si>
-    <t>ID ValueSet ALVO</t>
-  </si>
-  <si>
-    <t>COLLECTION ALVO</t>
-  </si>
-  <si>
-    <t>ValueSet Fonte x ValueSet Alvo com propósitos equivalentes (Organização, ValueSet, Collection)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORGANIZAÇÃO </t>
-  </si>
-  <si>
-    <t>ID ValueSet FONTE BRIMUNOBIOLÓGICO</t>
-  </si>
-  <si>
-    <t>NOME ValueSet FONTE BRIMUNOBIOLÓGICO</t>
-  </si>
-  <si>
-    <t>NOME Value Set (ALVO) (EN-GB)</t>
-  </si>
-  <si>
-    <t>NOME ValueSet (ALVO) (PT-PT)</t>
-  </si>
-  <si>
     <t xml:space="preserve">STATUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection x Collection </t>
+  </si>
+  <si>
+    <t>Organização x Organização</t>
+  </si>
+  <si>
+    <t>NOME (ALVO) (EN-GB)</t>
+  </si>
+  <si>
+    <t>NOME (ALVO) (PT-PT)</t>
+  </si>
+  <si>
+    <t>ID (FONTE)</t>
+  </si>
+  <si>
+    <t>NOME (FONTE)</t>
+  </si>
+  <si>
+    <t>ID (ALVO)</t>
   </si>
 </sst>
 </file>
@@ -106,18 +103,18 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,12 +126,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,30 +154,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -204,12 +195,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Mapeamento"/>
       <sheetName val="Opções"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -478,78 +467,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+  <autoFilter ref="A3:H3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
   </dataValidations>
@@ -562,13 +554,13 @@
           <x14:formula1>
             <xm:f>Opções!$A$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I1048576</xm:sqref>
+          <xm:sqref>G4:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
+          <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Entregaveis/Templates/Template Mapeamento.xlsx
+++ b/Entregaveis/Templates/Template Mapeamento.xlsx
@@ -161,16 +161,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,52 +485,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
